--- a/data/Rivers/MangatainokaatHukanui_92890ae869.xlsx
+++ b/data/Rivers/MangatainokaatHukanui_92890ae869.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -675,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -714,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -753,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -866,7 +866,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -897,7 +897,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -936,7 +936,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6378,7 +6378,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7698,7 +7698,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8910,7 +8910,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9284,7 +9284,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10032,7 +10032,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10406,7 +10406,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10484,7 +10484,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11540,7 +11540,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -11610,7 +11610,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -11680,7 +11680,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -11914,7 +11914,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -11949,7 +11949,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12038,7 +12038,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12139,7 +12139,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -12439,7 +12439,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -12844,7 +12844,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13074,7 +13074,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13152,7 +13152,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -13378,7 +13378,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -13561,7 +13561,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -13600,7 +13600,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -13834,7 +13834,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14005,7 +14005,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14040,7 +14040,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -14274,7 +14274,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -14309,7 +14309,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14348,7 +14348,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14461,7 +14461,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -14539,7 +14539,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -14652,7 +14652,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -14757,7 +14757,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -14835,7 +14835,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -14956,7 +14956,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15026,7 +15026,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -15209,7 +15209,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -15287,7 +15287,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -15505,7 +15505,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -15704,7 +15704,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -15739,7 +15739,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -15844,7 +15844,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -15879,7 +15879,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16078,7 +16078,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -16370,7 +16370,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -16452,7 +16452,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -16487,7 +16487,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -16553,7 +16553,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -16627,7 +16627,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -16705,7 +16705,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -16826,7 +16826,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -16861,7 +16861,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -16927,7 +16927,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -16954,7 +16954,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -16981,7 +16981,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -17082,7 +17082,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -17238,7 +17238,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -17351,7 +17351,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -17421,7 +17421,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -17534,7 +17534,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -17573,7 +17573,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -17655,7 +17655,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -17690,7 +17690,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -17725,7 +17725,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -17795,7 +17795,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -17908,7 +17908,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -17986,7 +17986,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -18029,7 +18029,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -18064,7 +18064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -18169,7 +18169,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -18204,7 +18204,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -18282,7 +18282,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -18321,7 +18321,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -18403,7 +18403,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -18473,7 +18473,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -18535,7 +18535,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -18617,7 +18617,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -18695,7 +18695,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -18738,7 +18738,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -18781,7 +18781,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -18824,7 +18824,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -18863,7 +18863,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -18902,7 +18902,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -18941,7 +18941,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -19105,7 +19105,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -19148,7 +19148,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -19226,7 +19226,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -19257,7 +19257,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -19300,7 +19300,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -19339,7 +19339,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -19546,7 +19546,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -19585,7 +19585,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -19655,7 +19655,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -19698,7 +19698,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -19737,7 +19737,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -19815,7 +19815,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -19858,7 +19858,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -19901,7 +19901,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -19944,7 +19944,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -19983,7 +19983,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -20022,7 +20022,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -20053,7 +20053,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -20096,7 +20096,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -20135,7 +20135,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -20213,7 +20213,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -20299,7 +20299,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -20342,7 +20342,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -20381,7 +20381,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -20420,7 +20420,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -20451,7 +20451,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -20494,7 +20494,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -20533,7 +20533,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -20611,7 +20611,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -20654,7 +20654,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -20697,7 +20697,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -20740,7 +20740,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -20779,7 +20779,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -20818,7 +20818,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -20930,7 +20930,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -20973,7 +20973,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -21090,7 +21090,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -21297,7 +21297,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -21328,7 +21328,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -21371,7 +21371,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -21410,7 +21410,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -21574,7 +21574,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -21617,7 +21617,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -21656,7 +21656,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -21695,7 +21695,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -21726,7 +21726,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -21765,7 +21765,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -21843,7 +21843,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -21929,7 +21929,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -22011,7 +22011,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -22050,7 +22050,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -22093,7 +22093,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -22253,7 +22253,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -22296,7 +22296,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -22378,7 +22378,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -22417,7 +22417,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -22487,7 +22487,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -22565,7 +22565,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -22608,7 +22608,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -22651,7 +22651,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -22694,7 +22694,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -22733,7 +22733,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -22772,7 +22772,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -22803,7 +22803,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -22846,7 +22846,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -22885,7 +22885,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -22963,7 +22963,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -23006,7 +23006,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -23049,7 +23049,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -23092,7 +23092,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -23131,7 +23131,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -23170,7 +23170,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -23330,7 +23330,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -23373,7 +23373,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -23455,7 +23455,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -23494,7 +23494,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -23525,7 +23525,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -23568,7 +23568,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -23607,7 +23607,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -23685,7 +23685,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -23728,7 +23728,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -23814,7 +23814,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -23853,7 +23853,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -23892,7 +23892,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -23923,7 +23923,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -23966,7 +23966,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -24005,7 +24005,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -24083,7 +24083,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -24126,7 +24126,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -24169,7 +24169,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -24212,7 +24212,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -24251,7 +24251,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -24290,7 +24290,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -24321,7 +24321,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -24364,7 +24364,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -24481,7 +24481,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -24524,7 +24524,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -24567,7 +24567,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -24610,7 +24610,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -24649,7 +24649,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -24688,7 +24688,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -24719,7 +24719,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -24762,7 +24762,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -24801,7 +24801,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -24879,7 +24879,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -24922,7 +24922,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -24965,7 +24965,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -25008,7 +25008,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -25047,7 +25047,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -25086,7 +25086,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -25117,7 +25117,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -25160,7 +25160,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -25277,7 +25277,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -25320,7 +25320,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -25406,7 +25406,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -25445,7 +25445,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -25484,7 +25484,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -25515,7 +25515,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -25554,7 +25554,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -25589,7 +25589,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -25628,7 +25628,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -25706,7 +25706,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -25741,7 +25741,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -25807,7 +25807,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -25834,7 +25834,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -25861,7 +25861,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -25888,7 +25888,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -25931,7 +25931,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -25970,7 +25970,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -26048,7 +26048,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -26091,7 +26091,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -26134,7 +26134,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -26177,7 +26177,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -26216,7 +26216,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -26255,7 +26255,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -26286,7 +26286,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -26329,7 +26329,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -26446,7 +26446,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -26489,7 +26489,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -26532,7 +26532,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -26614,7 +26614,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -26653,7 +26653,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -26684,7 +26684,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -26727,7 +26727,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -26766,7 +26766,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -26844,7 +26844,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -26887,7 +26887,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -26930,7 +26930,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -26973,7 +26973,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -27012,7 +27012,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -27051,7 +27051,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -27082,7 +27082,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -27121,7 +27121,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -27156,7 +27156,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -27195,7 +27195,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -27234,7 +27234,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -27273,7 +27273,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -27308,7 +27308,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -27343,7 +27343,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -27374,7 +27374,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -27417,7 +27417,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -27456,7 +27456,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -27534,7 +27534,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -27577,7 +27577,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -27620,7 +27620,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -27702,7 +27702,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
@@ -27741,7 +27741,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -27784,7 +27784,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -27823,7 +27823,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -27901,7 +27901,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -27944,7 +27944,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -27987,7 +27987,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -28030,7 +28030,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -28069,7 +28069,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -28108,7 +28108,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -28147,7 +28147,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -28225,7 +28225,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C733" s="2" t="n">
@@ -28268,7 +28268,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -28311,7 +28311,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -28354,7 +28354,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -28393,7 +28393,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -28471,7 +28471,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -28549,7 +28549,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -28592,7 +28592,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -28678,7 +28678,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
@@ -28717,7 +28717,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -28756,7 +28756,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C746" s="2" t="n">
@@ -28787,7 +28787,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -28830,7 +28830,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -28869,7 +28869,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -28947,7 +28947,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -28990,7 +28990,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -29033,7 +29033,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -29076,7 +29076,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
@@ -29115,7 +29115,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C755" s="2" t="n">
@@ -29154,7 +29154,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -29185,7 +29185,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -29228,7 +29228,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -29267,7 +29267,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C759" s="2" t="n">
@@ -29345,7 +29345,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -29388,7 +29388,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -29431,7 +29431,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -29474,7 +29474,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C764" s="2" t="n">
@@ -29513,7 +29513,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -29552,7 +29552,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C766" s="2" t="n">
@@ -29583,7 +29583,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -29610,7 +29610,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -29637,7 +29637,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -29664,7 +29664,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -29707,7 +29707,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C771" s="2" t="n">
@@ -29746,7 +29746,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -29824,7 +29824,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C774" s="2" t="n">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -29910,7 +29910,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -29953,7 +29953,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -29992,7 +29992,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -30031,7 +30031,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -30062,7 +30062,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -30105,7 +30105,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -30144,7 +30144,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -30222,7 +30222,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C784" s="2" t="n">
@@ -30265,7 +30265,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -30308,7 +30308,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C786" s="2" t="n">
@@ -30351,7 +30351,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C787" s="2" t="n">
@@ -30390,7 +30390,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -30429,7 +30429,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -30460,7 +30460,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -30542,7 +30542,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -30620,7 +30620,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C794" s="2" t="n">
@@ -30663,7 +30663,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C795" s="2" t="n">
@@ -30706,7 +30706,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C796" s="2" t="n">
@@ -30749,7 +30749,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C797" s="2" t="n">
@@ -30788,7 +30788,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -30827,7 +30827,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -30858,7 +30858,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C800" s="2" t="n">
@@ -30901,7 +30901,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
@@ -30940,7 +30940,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C802" s="2" t="n">
@@ -31018,7 +31018,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C804" s="2" t="n">
@@ -31061,7 +31061,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C805" s="2" t="n">
@@ -31104,7 +31104,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C806" s="2" t="n">
@@ -31147,7 +31147,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C807" s="2" t="n">
@@ -31186,7 +31186,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C808" s="2" t="n">
@@ -31225,7 +31225,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C809" s="2" t="n">
@@ -31256,7 +31256,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C810" s="2" t="n">
@@ -31299,7 +31299,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C811" s="2" t="n">
@@ -31338,7 +31338,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C812" s="2" t="n">
@@ -31416,7 +31416,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C814" s="2" t="n">
@@ -31459,7 +31459,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C815" s="2" t="n">
@@ -31502,7 +31502,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C816" s="2" t="n">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C817" s="2" t="n">
@@ -31584,7 +31584,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C818" s="2" t="n">
@@ -31623,7 +31623,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C819" s="2" t="n">
@@ -31654,7 +31654,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C820" s="2" t="n">
@@ -31697,7 +31697,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C821" s="2" t="n">
@@ -31736,7 +31736,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C822" s="2" t="n">
@@ -31814,7 +31814,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C824" s="2" t="n">
@@ -31857,7 +31857,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C825" s="2" t="n">
@@ -31900,7 +31900,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C826" s="2" t="n">
@@ -31943,7 +31943,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C827" s="2" t="n">
@@ -31982,7 +31982,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C828" s="2" t="n">
@@ -32021,7 +32021,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C829" s="2" t="n">
@@ -32064,7 +32064,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C830" s="2" t="n">
@@ -32103,7 +32103,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C831" s="2" t="n">
@@ -32181,7 +32181,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C833" s="2" t="n">
@@ -32224,7 +32224,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C834" s="2" t="n">
@@ -32267,7 +32267,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C835" s="2" t="n">
@@ -32310,7 +32310,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C836" s="2" t="n">
@@ -32349,7 +32349,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C837" s="2" t="n">
@@ -32388,7 +32388,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C838" s="2" t="n">
@@ -32419,7 +32419,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C839" s="2" t="n">
@@ -32462,7 +32462,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C840" s="2" t="n">
@@ -32501,7 +32501,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C841" s="2" t="n">
@@ -32579,7 +32579,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C843" s="2" t="n">
@@ -32622,7 +32622,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C844" s="2" t="n">
@@ -32665,7 +32665,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C845" s="2" t="n">
@@ -32708,7 +32708,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C846" s="2" t="n">
@@ -32747,7 +32747,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C847" s="2" t="n">
@@ -32786,7 +32786,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C848" s="2" t="n">
@@ -32829,7 +32829,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C849" s="2" t="n">
@@ -32868,7 +32868,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C850" s="2" t="n">
@@ -32946,7 +32946,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C852" s="2" t="n">
@@ -32989,7 +32989,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C853" s="2" t="n">
@@ -33032,7 +33032,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C854" s="2" t="n">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C855" s="2" t="n">
@@ -33114,7 +33114,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C856" s="2" t="n">
@@ -33153,7 +33153,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C857" s="2" t="n">
@@ -33196,7 +33196,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C858" s="2" t="n">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C859" s="2" t="n">
@@ -33313,7 +33313,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C861" s="2" t="n">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C862" s="2" t="n">
@@ -33399,7 +33399,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C863" s="2" t="n">
@@ -33442,7 +33442,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C864" s="2" t="n">
@@ -33481,7 +33481,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C865" s="2" t="n">
@@ -33520,7 +33520,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C866" s="2" t="n">
@@ -33563,7 +33563,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C867" s="2" t="n">
@@ -33602,7 +33602,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C868" s="2" t="n">
@@ -33680,7 +33680,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C870" s="2" t="n">
@@ -33723,7 +33723,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C871" s="2" t="n">
@@ -33766,7 +33766,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C872" s="2" t="n">
@@ -33809,7 +33809,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C873" s="2" t="n">
@@ -33848,7 +33848,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C874" s="2" t="n">
@@ -33887,7 +33887,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C875" s="2" t="n">
@@ -33914,7 +33914,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C876" s="2" t="n">
@@ -33941,7 +33941,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C877" s="2" t="n">
@@ -33968,7 +33968,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C878" s="2" t="n">
@@ -34011,7 +34011,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C879" s="2" t="n">
@@ -34050,7 +34050,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C880" s="2" t="n">
@@ -34128,7 +34128,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C882" s="2" t="n">
@@ -34171,7 +34171,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C883" s="2" t="n">
@@ -34214,7 +34214,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C884" s="2" t="n">
@@ -34257,7 +34257,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C885" s="2" t="n">
@@ -34296,7 +34296,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C886" s="2" t="n">
@@ -34335,7 +34335,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C887" s="2" t="n">
@@ -34366,7 +34366,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C888" s="2" t="n">
@@ -34405,7 +34405,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C889" s="2" t="n">
@@ -34440,7 +34440,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C890" s="2" t="n">
@@ -34475,7 +34475,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C891" s="2" t="n">
@@ -34514,7 +34514,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C892" s="2" t="n">
@@ -34553,7 +34553,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C893" s="2" t="n">
@@ -34592,7 +34592,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C894" s="2" t="n">
@@ -34627,7 +34627,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C895" s="2" t="n">
@@ -34662,7 +34662,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C896" s="2" t="n">
@@ -34705,7 +34705,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C897" s="2" t="n">
@@ -34744,7 +34744,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C898" s="2" t="n">
@@ -34822,7 +34822,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C900" s="2" t="n">
@@ -34865,7 +34865,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C901" s="2" t="n">
@@ -34908,7 +34908,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C902" s="2" t="n">
@@ -34951,7 +34951,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C903" s="2" t="n">
@@ -34990,7 +34990,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C904" s="2" t="n">
@@ -35029,7 +35029,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C905" s="2" t="n">
@@ -35060,7 +35060,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C906" s="2" t="n">
@@ -35091,7 +35091,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C907" s="2" t="n">
@@ -35134,7 +35134,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C908" s="2" t="n">
@@ -35173,7 +35173,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C909" s="2" t="n">
@@ -35251,7 +35251,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C911" s="2" t="n">
@@ -35294,7 +35294,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C912" s="2" t="n">
@@ -35337,7 +35337,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C913" s="2" t="n">
@@ -35380,7 +35380,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C914" s="2" t="n">
@@ -35419,7 +35419,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C915" s="2" t="n">
@@ -35458,7 +35458,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C916" s="2" t="n">
@@ -35501,7 +35501,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C917" s="2" t="n">
@@ -35540,7 +35540,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C918" s="2" t="n">
@@ -35618,7 +35618,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C920" s="2" t="n">
@@ -35661,7 +35661,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C921" s="2" t="n">
@@ -35704,7 +35704,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C922" s="2" t="n">
@@ -35747,7 +35747,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C923" s="2" t="n">
@@ -35786,7 +35786,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C924" s="2" t="n">
@@ -35825,7 +35825,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C925" s="2" t="n">
@@ -35856,7 +35856,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C926" s="2" t="n">
@@ -35899,7 +35899,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C927" s="2" t="n">
@@ -35938,7 +35938,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C928" s="2" t="n">
@@ -36016,7 +36016,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C930" s="2" t="n">
@@ -36059,7 +36059,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C931" s="2" t="n">
@@ -36102,7 +36102,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C932" s="2" t="n">
@@ -36145,7 +36145,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C933" s="2" t="n">
@@ -36184,7 +36184,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C934" s="2" t="n">
@@ -36223,7 +36223,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C935" s="2" t="n">
@@ -36254,7 +36254,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C936" s="2" t="n">
@@ -36297,7 +36297,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C937" s="2" t="n">
@@ -36336,7 +36336,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C938" s="2" t="n">
@@ -36414,7 +36414,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C940" s="2" t="n">
@@ -36457,7 +36457,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C941" s="2" t="n">
@@ -36500,7 +36500,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C942" s="2" t="n">
@@ -36543,7 +36543,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C943" s="2" t="n">
@@ -36582,7 +36582,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C944" s="2" t="n">
@@ -36621,7 +36621,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C945" s="2" t="n">
@@ -36652,7 +36652,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C946" s="2" t="n">
@@ -36695,7 +36695,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C947" s="2" t="n">
@@ -36734,7 +36734,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C948" s="2" t="n">
@@ -36812,7 +36812,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C950" s="2" t="n">
@@ -36855,7 +36855,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C951" s="2" t="n">
@@ -36898,7 +36898,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C952" s="2" t="n">
@@ -36941,7 +36941,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C953" s="2" t="n">
@@ -36980,7 +36980,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C954" s="2" t="n">
@@ -37019,7 +37019,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C955" s="2" t="n">
@@ -37062,7 +37062,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C956" s="2" t="n">
@@ -37101,7 +37101,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C957" s="2" t="n">
@@ -37179,7 +37179,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C959" s="2" t="n">
@@ -37222,7 +37222,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C960" s="2" t="n">
@@ -37265,7 +37265,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C961" s="2" t="n">
@@ -37308,7 +37308,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C962" s="2" t="n">
@@ -37347,7 +37347,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C963" s="2" t="n">
@@ -37386,7 +37386,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C964" s="2" t="n">
@@ -37429,7 +37429,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C965" s="2" t="n">
@@ -37468,7 +37468,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C966" s="2" t="n">
@@ -37546,7 +37546,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C968" s="2" t="n">
@@ -37589,7 +37589,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C969" s="2" t="n">
@@ -37632,7 +37632,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C970" s="2" t="n">
@@ -37675,7 +37675,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C971" s="2" t="n">
@@ -37714,7 +37714,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C972" s="2" t="n">
@@ -37753,7 +37753,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C973" s="2" t="n">
@@ -37796,7 +37796,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C974" s="2" t="n">
@@ -37835,7 +37835,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C975" s="2" t="n">
@@ -37913,7 +37913,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C977" s="2" t="n">
@@ -37956,7 +37956,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C978" s="2" t="n">
@@ -37999,7 +37999,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C979" s="2" t="n">
@@ -38042,7 +38042,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C980" s="2" t="n">
@@ -38081,7 +38081,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C981" s="2" t="n">
@@ -38120,7 +38120,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C982" s="2" t="n">
@@ -38151,7 +38151,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C983" s="2" t="n">
@@ -38194,7 +38194,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C984" s="2" t="n">
@@ -38233,7 +38233,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C985" s="2" t="n">
@@ -38311,7 +38311,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C987" s="2" t="n">
@@ -38354,7 +38354,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C988" s="2" t="n">
@@ -38397,7 +38397,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C989" s="2" t="n">
@@ -38440,7 +38440,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C990" s="2" t="n">
@@ -38479,7 +38479,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C991" s="2" t="n">
@@ -38518,7 +38518,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C992" s="2" t="n">
@@ -38561,7 +38561,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C993" s="2" t="n">
@@ -38600,7 +38600,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C994" s="2" t="n">
@@ -38678,7 +38678,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C996" s="2" t="n">
@@ -38721,7 +38721,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C997" s="2" t="n">
@@ -38764,7 +38764,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C998" s="2" t="n">
@@ -38807,7 +38807,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C999" s="2" t="n">
@@ -38846,7 +38846,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1000" s="2" t="n">
@@ -38885,7 +38885,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1001" s="2" t="n">
@@ -38916,7 +38916,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C1002" s="2" t="n">
@@ -38943,7 +38943,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C1003" s="2" t="n">
@@ -38970,7 +38970,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C1004" s="2" t="n">
@@ -38997,7 +38997,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1005" s="2" t="n">
@@ -39040,7 +39040,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1006" s="2" t="n">
@@ -39079,7 +39079,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1007" s="2" t="n">
@@ -39157,7 +39157,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1009" s="2" t="n">
@@ -39200,7 +39200,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1010" s="2" t="n">
@@ -39243,7 +39243,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1011" s="2" t="n">
@@ -39286,7 +39286,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1012" s="2" t="n">
@@ -39325,7 +39325,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1013" s="2" t="n">
@@ -39364,7 +39364,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1014" s="2" t="n">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1015" s="2" t="n">
@@ -39438,7 +39438,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1016" s="2" t="n">
@@ -39477,7 +39477,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1017" s="2" t="n">
@@ -39555,7 +39555,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1019" s="2" t="n">
@@ -39598,7 +39598,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1020" s="2" t="n">
@@ -39641,7 +39641,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1021" s="2" t="n">
@@ -39684,7 +39684,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1022" s="2" t="n">
@@ -39723,7 +39723,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1023" s="2" t="n">
@@ -39762,7 +39762,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1024" s="2" t="n">
@@ -39793,7 +39793,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1025" s="2" t="n">
@@ -39824,7 +39824,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1026" s="2" t="n">
@@ -39867,7 +39867,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1027" s="2" t="n">
@@ -39906,7 +39906,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1028" s="2" t="n">
@@ -39984,7 +39984,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1030" s="2" t="n">
@@ -40027,7 +40027,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1031" s="2" t="n">
@@ -40070,7 +40070,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1032" s="2" t="n">
@@ -40113,7 +40113,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1033" s="2" t="n">
@@ -40152,7 +40152,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1034" s="2" t="n">
@@ -40191,7 +40191,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C1035" s="2" t="n">
@@ -40222,7 +40222,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1036" s="2" t="n">
@@ -40265,7 +40265,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1037" s="2" t="n">
@@ -40304,7 +40304,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1038" s="2" t="n">
@@ -40382,7 +40382,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1040" s="2" t="n">
@@ -40425,7 +40425,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1041" s="2" t="n">
@@ -40468,7 +40468,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1042" s="2" t="n">
@@ -40511,7 +40511,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1043" s="2" t="n">
@@ -40550,7 +40550,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1044" s="2" t="n">
@@ -40589,7 +40589,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C1045" s="2" t="n">
@@ -40632,7 +40632,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C1046" s="2" t="n">
@@ -40671,7 +40671,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C1047" s="2" t="n">
@@ -40749,7 +40749,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C1049" s="2" t="n">
@@ -40792,7 +40792,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C1050" s="2" t="n">
@@ -40835,7 +40835,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C1051" s="2" t="n">
@@ -40878,7 +40878,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C1052" s="2" t="n">
@@ -40917,7 +40917,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C1053" s="2" t="n">
